--- a/src/test/java/day12_webtables_excel/ulkeler.xlsx
+++ b/src/test/java/day12_webtables_excel/ulkeler.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="576">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1740,12 +1740,22 @@
   </si>
   <si>
     <t>Zimbabve</t>
+  </si>
+  <si>
+    <t>Nufus</t>
+  </si>
+  <si>
+    <t>1500000</t>
+  </si>
+  <si>
+    <t>3000000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2170,7 +2180,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2186,8 +2196,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="36.28515625" customWidth="1"/>
+    <col min="1" max="4" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="36.28515625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2203,6 +2213,9 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -2231,6 +2244,9 @@
       <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
+      <c r="E3" t="s">
+        <v>574</v>
+      </c>
       <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2287,6 +2303,9 @@
       </c>
       <c r="D7" s="7" t="s">
         <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
